--- a/Data/Pieces.xlsx
+++ b/Data/Pieces.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\AI\Grad Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776139C8-F44D-45B4-9ECE-D3F2D0761691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E68B6-FEC1-4469-83EF-63AC4CB0AAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1872" windowWidth="16680" windowHeight="8796" xr2:uid="{3135BFF7-77EC-4C11-AD28-E79C9DBEB25F}"/>
+    <workbookView xWindow="5040" yWindow="2016" windowWidth="16680" windowHeight="8796" activeTab="3" xr2:uid="{3135BFF7-77EC-4C11-AD28-E79C9DBEB25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Pieces" sheetId="1" r:id="rId1"/>
+    <sheet name="Rooms" sheetId="2" r:id="rId2"/>
+    <sheet name="Categories" sheetId="3" r:id="rId3"/>
+    <sheet name="Aesthetics" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -355,22 +358,20 @@
   </si>
   <si>
     <t>A comfortable modern sofa with soft cushions with small seat.</t>
+  </si>
+  <si>
+    <t>Decorative</t>
+  </si>
+  <si>
+    <t>Categories</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -391,8 +392,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,8 +433,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -591,22 +613,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -616,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,12 +671,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -969,8 +1015,8 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,1420 +1025,1421 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="22" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+    <row r="2" spans="1:14" ht="106.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>250</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>300</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>85</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>180</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>80</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>550</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <v>75</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>200</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <v>100</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>120</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>150</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>90</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>75</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>85</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>400</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <v>450</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>120</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>100</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="8">
         <v>50</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>700</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>850</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>140</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>200</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>220</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>300</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <v>65</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>180</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>40</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>180</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>40</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>120</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>60</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>200</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <v>75</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="8">
         <v>40</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="8">
         <v>40</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="K9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>320</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>75</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>160</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>70</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>250</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>180</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="8">
         <v>90</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>40</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="K11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>95</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>90</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>120</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>150</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="8">
         <v>85</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="8">
         <v>70</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>70</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="10" t="s">
+      <c r="K13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>150</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>45</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>120</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>60</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>750</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <v>180</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="8">
         <v>100</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>200</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>300</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>350</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>180</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>90</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>40</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="K16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>400</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="8">
         <v>90</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="8">
         <v>150</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <v>50</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="10" t="s">
+      <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>90</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>75</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>85</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>200</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <v>60</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <v>50</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="8">
         <v>40</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="K19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>220</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>110</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>80</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>40</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>600</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>700</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>140</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>120</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="8">
         <v>50</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="10" t="s">
+      <c r="K21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>280</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>320</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <v>90</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>75</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>75</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="5" t="s">
+      <c r="K22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <v>450</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <v>500</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="8">
         <v>75</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="8">
         <v>200</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="8">
         <v>100</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="10" t="s">
+      <c r="K23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>180</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <v>50</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="3">
         <v>50</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="5" t="s">
+      <c r="K24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <v>600</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="8">
         <v>140</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="8">
         <v>200</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="8">
         <v>220</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="10" t="s">
+      <c r="K25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>350</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <v>60</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <v>180</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>40</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="5" t="s">
+      <c r="K26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="8">
         <v>120</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="8">
         <v>100</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="8">
         <v>80</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="8">
         <v>30</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="10" t="s">
+      <c r="K27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <v>250</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <v>75</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <v>120</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="3">
         <v>80</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="K28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="8">
         <v>350</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="8">
         <v>400</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="8">
         <v>180</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="8">
         <v>120</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="8">
         <v>40</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="10" t="s">
+      <c r="K29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>500</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="3">
         <v>550</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="3">
         <v>100</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <v>90</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="3">
         <v>85</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="5" t="s">
+      <c r="K30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="8">
         <v>200</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="8">
         <v>75</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="8">
         <v>120</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="8">
         <v>20</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="10" t="s">
+      <c r="K31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="12">
         <v>450</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="12">
         <v>500</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="12">
         <v>85</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="12">
         <v>240</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="12">
         <v>80</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="14">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{9ADBBACF-27D4-4193-9C24-CDFD3023D8E4}"/>
     <hyperlink ref="K32" r:id="rId2" xr:uid="{35543532-41C2-4C1D-88C6-F3C08B5316D9}"/>
@@ -2400,4 +2447,168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CCAB7D-B4F0-493E-9B12-CD9154CA1513}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0687CBDB-1A92-4817-92FF-405718539048}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF2E37A-5ABD-4838-9BB4-836BE53847B2}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Pieces.xlsx
+++ b/Data/Pieces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\AI\Grad Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E68B6-FEC1-4469-83EF-63AC4CB0AAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1709C867-6CFD-4BB9-B835-229082886916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2016" windowWidth="16680" windowHeight="8796" activeTab="3" xr2:uid="{3135BFF7-77EC-4C11-AD28-E79C9DBEB25F}"/>
+    <workbookView xWindow="8724" yWindow="2064" windowWidth="5820" windowHeight="9132" xr2:uid="{3135BFF7-77EC-4C11-AD28-E79C9DBEB25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Pieces" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -352,12 +352,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1cP1iuKd8SnaThnWbdp_VRErYnYLZ1HcP/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1JAMAWamToaF9zfgJxHzOaVT1mX8mltyn/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>A comfortable modern sofa with soft cushions with small seat.</t>
   </si>
   <si>
     <t>Decorative</t>
@@ -680,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1015,8 +1009,8 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2394,58 +2388,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="12">
-        <v>450</v>
-      </c>
-      <c r="G32" s="12">
-        <v>500</v>
-      </c>
-      <c r="H32" s="12">
-        <v>85</v>
-      </c>
-      <c r="I32" s="12">
-        <v>240</v>
-      </c>
-      <c r="J32" s="12">
-        <v>80</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N32" s="14">
-        <v>1</v>
-      </c>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{9ADBBACF-27D4-4193-9C24-CDFD3023D8E4}"/>
-    <hyperlink ref="K32" r:id="rId2" xr:uid="{35543532-41C2-4C1D-88C6-F3C08B5316D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="36" orientation="portrait" r:id="rId3"/>
+  <pageSetup scale="36" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2507,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2532,7 +2497,7 @@
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2549,7 +2514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF2E37A-5ABD-4838-9BB4-836BE53847B2}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
